--- a/REGULAR/DSWD/DIMAPILIS, MA.TRINIDAD S..xlsx
+++ b/REGULAR/DSWD/DIMAPILIS, MA.TRINIDAD S..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="355">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1090,6 +1090,15 @@
   </si>
   <si>
     <t>10/9,10,12,13/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/2-4/2024</t>
   </si>
 </sst>
 </file>
@@ -3548,8 +3557,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K469" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K469"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K485" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K485"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3927,12 +3936,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K469"/>
+  <dimension ref="A2:K485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A452" activePane="bottomLeft"/>
+      <pane ySplit="4785" topLeftCell="A467" activePane="bottomLeft"/>
       <selection activeCell="E467" sqref="E467"/>
-      <selection pane="bottomLeft" activeCell="H468" sqref="H468"/>
+      <selection pane="bottomLeft" activeCell="G472" sqref="G472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,7 +4098,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.558999999999912</v>
+        <v>64.058999999999912</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4099,7 +4108,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>352.12</v>
+        <v>353.62</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13577,7 +13586,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <f t="shared" ref="A431:A469" si="8">EDATE(A430,1)</f>
+        <f t="shared" ref="A431:A481" si="8">EDATE(A430,1)</f>
         <v>44228</v>
       </c>
       <c r="B431" s="20"/>
@@ -14374,13 +14383,15 @@
       <c r="B468" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C468" s="13"/>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D468" s="48"/>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="39">
         <v>1</v>
@@ -14397,18 +14408,318 @@
         <v>45261</v>
       </c>
       <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D469" s="48"/>
       <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="39"/>
       <c r="I469" s="9"/>
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="48"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H470" s="39"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="40">
+        <f>EDATE(A469,1)</f>
+        <v>45292</v>
+      </c>
+      <c r="B471" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C471" s="13"/>
+      <c r="D471" s="48"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H471" s="39"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="40"/>
+      <c r="B472" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C472" s="13"/>
+      <c r="D472" s="48"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H472" s="39">
+        <v>1</v>
+      </c>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="66">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="40">
+        <f>EDATE(A471,1)</f>
+        <v>45323</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="48"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H473" s="39"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="40">
+        <f t="shared" si="8"/>
+        <v>45352</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="48"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H474" s="39"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40">
+        <f t="shared" si="8"/>
+        <v>45383</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="48"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H475" s="39"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="40">
+        <f t="shared" si="8"/>
+        <v>45413</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="48"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H476" s="39"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="40">
+        <f t="shared" si="8"/>
+        <v>45444</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="48"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H477" s="39"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40">
+        <f t="shared" si="8"/>
+        <v>45474</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="48"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H478" s="39"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40">
+        <f t="shared" si="8"/>
+        <v>45505</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="48"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="40">
+        <f t="shared" si="8"/>
+        <v>45536</v>
+      </c>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="48"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="40">
+        <f t="shared" si="8"/>
+        <v>45566</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="48"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="40"/>
+      <c r="B482" s="20"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="48"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H482" s="39"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="40"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="48"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="39"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="40"/>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="48"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="39"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="40"/>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="48"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="39"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
